--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl25-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ccl25-Ackr4.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.934604333333334</v>
+        <v>2.758234</v>
       </c>
       <c r="H2">
-        <v>17.803813</v>
+        <v>8.274702</v>
       </c>
       <c r="I2">
-        <v>0.3081877218757661</v>
+        <v>0.1921318935545868</v>
       </c>
       <c r="J2">
-        <v>0.3081877218757661</v>
+        <v>0.1921318935545868</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1143813333333333</v>
+        <v>0.1148133333333333</v>
       </c>
       <c r="N2">
-        <v>0.343144</v>
+        <v>0.34444</v>
       </c>
       <c r="O2">
-        <v>0.03414257747883775</v>
+        <v>0.03343792635928704</v>
       </c>
       <c r="P2">
-        <v>0.03414257747883775</v>
+        <v>0.03343792635928704</v>
       </c>
       <c r="Q2">
-        <v>0.6788079564524445</v>
+        <v>0.3166820396533333</v>
       </c>
       <c r="R2">
-        <v>6.109271608072</v>
+        <v>2.85013835688</v>
       </c>
       <c r="S2">
-        <v>0.01052232317216984</v>
+        <v>0.006424492107948651</v>
       </c>
       <c r="T2">
-        <v>0.01052232317216984</v>
+        <v>0.006424492107948651</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.934604333333334</v>
+        <v>2.758234</v>
       </c>
       <c r="H3">
-        <v>17.803813</v>
+        <v>8.274702</v>
       </c>
       <c r="I3">
-        <v>0.3081877218757661</v>
+        <v>0.1921318935545868</v>
       </c>
       <c r="J3">
-        <v>0.3081877218757661</v>
+        <v>0.1921318935545868</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>9.527947000000001</v>
       </c>
       <c r="O3">
-        <v>0.9480237703755849</v>
+        <v>0.9249645515654102</v>
       </c>
       <c r="P3">
-        <v>0.9480237703755849</v>
+        <v>0.9249645515654102</v>
       </c>
       <c r="Q3">
-        <v>18.84819851799011</v>
+        <v>8.760102455199334</v>
       </c>
       <c r="R3">
-        <v>169.633786661911</v>
+        <v>78.840922096794</v>
       </c>
       <c r="S3">
-        <v>0.2921692860761259</v>
+        <v>0.1777151907631315</v>
       </c>
       <c r="T3">
-        <v>0.2921692860761259</v>
+        <v>0.1777151907631315</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.934604333333334</v>
+        <v>2.758234</v>
       </c>
       <c r="H4">
-        <v>17.803813</v>
+        <v>8.274702</v>
       </c>
       <c r="I4">
-        <v>0.3081877218757661</v>
+        <v>0.1921318935545868</v>
       </c>
       <c r="J4">
-        <v>0.3081877218757661</v>
+        <v>0.1921318935545868</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05974466666666667</v>
+        <v>0.1428303333333333</v>
       </c>
       <c r="N4">
-        <v>0.179234</v>
+        <v>0.428491</v>
       </c>
       <c r="O4">
-        <v>0.01783365214557738</v>
+        <v>0.04159752207530271</v>
       </c>
       <c r="P4">
-        <v>0.01783365214557738</v>
+        <v>0.04159752207530271</v>
       </c>
       <c r="Q4">
-        <v>0.3545609576935556</v>
+        <v>0.3939594816313333</v>
       </c>
       <c r="R4">
-        <v>3.191048619242</v>
+        <v>3.545635334682</v>
       </c>
       <c r="S4">
-        <v>0.005496112627470361</v>
+        <v>0.007992210683506635</v>
       </c>
       <c r="T4">
-        <v>0.005496112627470361</v>
+        <v>0.007992210683506635</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.720663999999999</v>
+        <v>7.720664</v>
       </c>
       <c r="H5">
         <v>23.161992</v>
       </c>
       <c r="I5">
-        <v>0.4009389195777736</v>
+        <v>0.5378027367579149</v>
       </c>
       <c r="J5">
-        <v>0.4009389195777735</v>
+        <v>0.5378027367579149</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1143813333333333</v>
+        <v>0.1148133333333333</v>
       </c>
       <c r="N5">
-        <v>0.343144</v>
+        <v>0.34444</v>
       </c>
       <c r="O5">
-        <v>0.03414257747883775</v>
+        <v>0.03343792635928704</v>
       </c>
       <c r="P5">
-        <v>0.03414257747883775</v>
+        <v>0.03343792635928704</v>
       </c>
       <c r="Q5">
-        <v>0.8830998425386666</v>
+        <v>0.8864351693866667</v>
       </c>
       <c r="R5">
-        <v>7.947898582848</v>
+        <v>7.977916524480001</v>
       </c>
       <c r="S5">
-        <v>0.01368908812596563</v>
+        <v>0.01798300830753419</v>
       </c>
       <c r="T5">
-        <v>0.01368908812596563</v>
+        <v>0.01798300830753419</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.720663999999999</v>
+        <v>7.720664</v>
       </c>
       <c r="H6">
         <v>23.161992</v>
       </c>
       <c r="I6">
-        <v>0.4009389195777736</v>
+        <v>0.5378027367579149</v>
       </c>
       <c r="J6">
-        <v>0.4009389195777735</v>
+        <v>0.5378027367579149</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>9.527947000000001</v>
       </c>
       <c r="O6">
-        <v>0.9480237703755849</v>
+        <v>0.9249645515654102</v>
       </c>
       <c r="P6">
-        <v>0.9480237703755849</v>
+        <v>0.9249645515654102</v>
       </c>
       <c r="Q6">
         <v>24.52069246560267</v>
       </c>
       <c r="R6">
-        <v>220.686232190424</v>
+        <v>220.6862321904241</v>
       </c>
       <c r="S6">
-        <v>0.3800996262284343</v>
+        <v>0.4974484672359351</v>
       </c>
       <c r="T6">
-        <v>0.3800996262284342</v>
+        <v>0.4974484672359351</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.720663999999999</v>
+        <v>7.720664</v>
       </c>
       <c r="H7">
         <v>23.161992</v>
       </c>
       <c r="I7">
-        <v>0.4009389195777736</v>
+        <v>0.5378027367579149</v>
       </c>
       <c r="J7">
-        <v>0.4009389195777735</v>
+        <v>0.5378027367579149</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.05974466666666667</v>
+        <v>0.1428303333333333</v>
       </c>
       <c r="N7">
-        <v>0.179234</v>
+        <v>0.428491</v>
       </c>
       <c r="O7">
-        <v>0.01783365214557738</v>
+        <v>0.04159752207530271</v>
       </c>
       <c r="P7">
-        <v>0.01783365214557738</v>
+        <v>0.04159752207530271</v>
       </c>
       <c r="Q7">
-        <v>0.4612684971253333</v>
+        <v>1.102745012674667</v>
       </c>
       <c r="R7">
-        <v>4.151416474127999</v>
+        <v>9.924705114072001</v>
       </c>
       <c r="S7">
-        <v>0.007150205223373639</v>
+        <v>0.02237126121444558</v>
       </c>
       <c r="T7">
-        <v>0.007150205223373638</v>
+        <v>0.02237126121444558</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.601191</v>
+        <v>3.877042333333333</v>
       </c>
       <c r="H8">
-        <v>16.803573</v>
+        <v>11.631127</v>
       </c>
       <c r="I8">
-        <v>0.2908733585464604</v>
+        <v>0.2700653696874982</v>
       </c>
       <c r="J8">
-        <v>0.2908733585464603</v>
+        <v>0.2700653696874982</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1143813333333333</v>
+        <v>0.1148133333333333</v>
       </c>
       <c r="N8">
-        <v>0.343144</v>
+        <v>0.34444</v>
       </c>
       <c r="O8">
-        <v>0.03414257747883775</v>
+        <v>0.03343792635928704</v>
       </c>
       <c r="P8">
-        <v>0.03414257747883775</v>
+        <v>0.03343792635928704</v>
       </c>
       <c r="Q8">
-        <v>0.6406716948346667</v>
+        <v>0.4451361537644444</v>
       </c>
       <c r="R8">
-        <v>5.766045253512</v>
+        <v>4.00622538388</v>
       </c>
       <c r="S8">
-        <v>0.009931166180702276</v>
+        <v>0.009030425943804198</v>
       </c>
       <c r="T8">
-        <v>0.009931166180702274</v>
+        <v>0.009030425943804198</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.601191</v>
+        <v>3.877042333333333</v>
       </c>
       <c r="H9">
-        <v>16.803573</v>
+        <v>11.631127</v>
       </c>
       <c r="I9">
-        <v>0.2908733585464604</v>
+        <v>0.2700653696874982</v>
       </c>
       <c r="J9">
-        <v>0.2908733585464603</v>
+        <v>0.2700653696874982</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>9.527947000000001</v>
       </c>
       <c r="O9">
-        <v>0.9480237703755849</v>
+        <v>0.9249645515654102</v>
       </c>
       <c r="P9">
-        <v>0.9480237703755849</v>
+        <v>0.9249645515654102</v>
       </c>
       <c r="Q9">
-        <v>17.78928366162567</v>
+        <v>12.31341795625211</v>
       </c>
       <c r="R9">
-        <v>160.103552954631</v>
+        <v>110.820761606269</v>
       </c>
       <c r="S9">
-        <v>0.2757548580710248</v>
+        <v>0.2498008935663435</v>
       </c>
       <c r="T9">
-        <v>0.2757548580710247</v>
+        <v>0.2498008935663435</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.601191</v>
+        <v>3.877042333333333</v>
       </c>
       <c r="H10">
-        <v>16.803573</v>
+        <v>11.631127</v>
       </c>
       <c r="I10">
-        <v>0.2908733585464604</v>
+        <v>0.2700653696874982</v>
       </c>
       <c r="J10">
-        <v>0.2908733585464603</v>
+        <v>0.2700653696874982</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.05974466666666667</v>
+        <v>0.1428303333333333</v>
       </c>
       <c r="N10">
-        <v>0.179234</v>
+        <v>0.428491</v>
       </c>
       <c r="O10">
-        <v>0.01783365214557738</v>
+        <v>0.04159752207530271</v>
       </c>
       <c r="P10">
-        <v>0.01783365214557738</v>
+        <v>0.04159752207530271</v>
       </c>
       <c r="Q10">
-        <v>0.3346412892313333</v>
+        <v>0.5537592488174444</v>
       </c>
       <c r="R10">
-        <v>3.011771603082</v>
+        <v>4.983833239357</v>
       </c>
       <c r="S10">
-        <v>0.005187334294733383</v>
+        <v>0.01123405017735049</v>
       </c>
       <c r="T10">
-        <v>0.005187334294733382</v>
+        <v>0.01123405017735049</v>
       </c>
     </row>
   </sheetData>
